--- a/public/gunluk.xlsx
+++ b/public/gunluk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C56918-5D6F-4675-94BE-7CC774F3CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B5D3D-35F0-4FC0-A076-2CFE42528661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="günlük arapça_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$E$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="381">
   <si>
     <t>arabic_word</t>
   </si>
@@ -874,6 +874,312 @@
   </si>
   <si>
     <t>Ütü</t>
+  </si>
+  <si>
+    <t>زَهَبَ</t>
+  </si>
+  <si>
+    <t>جَاءَ</t>
+  </si>
+  <si>
+    <t>سَيَّارَةٌ</t>
+  </si>
+  <si>
+    <t>حَافِلَةٌ</t>
+  </si>
+  <si>
+    <t>مَتْرُو</t>
+  </si>
+  <si>
+    <t>صَلاَةٌ</t>
+  </si>
+  <si>
+    <t>وُضُوءٌ</t>
+  </si>
+  <si>
+    <t>عُطْلَةٌ</t>
+  </si>
+  <si>
+    <t>عَمَلٌ</t>
+  </si>
+  <si>
+    <t>عَمِلَ</t>
+  </si>
+  <si>
+    <t>كَنَسَ</t>
+  </si>
+  <si>
+    <t>غَسَلَ</t>
+  </si>
+  <si>
+    <t>طَبَقٌ</t>
+  </si>
+  <si>
+    <t>كَوَى</t>
+  </si>
+  <si>
+    <t>مِكْوَاةٌ</t>
+  </si>
+  <si>
+    <t>ثَوْبٌ</t>
+  </si>
+  <si>
+    <t>مَلْبَسٌ</t>
+  </si>
+  <si>
+    <t>مُبَكِّرًا</t>
+  </si>
+  <si>
+    <t>مُتَأَخِّرًا</t>
+  </si>
+  <si>
+    <t>مُشَاهَدَةُ التِّلْفَازِ</t>
+  </si>
+  <si>
+    <t>صَحِيفَةٌ</t>
+  </si>
+  <si>
+    <t>جَرِيدَةٌ</t>
+  </si>
+  <si>
+    <t>مَجَلَّةٌ</t>
+  </si>
+  <si>
+    <t>كَبِيرٌ</t>
+  </si>
+  <si>
+    <t>صَغِيرٌ</t>
+  </si>
+  <si>
+    <t>سَاعَةٌ</t>
+  </si>
+  <si>
+    <t>اَلْأَعْدَادُ التَّرْتِيبِيَّةُ</t>
+  </si>
+  <si>
+    <t>اَلْأَوَّلُ</t>
+  </si>
+  <si>
+    <t>اَلثَّانِي</t>
+  </si>
+  <si>
+    <t>اَلثَّالِثُ</t>
+  </si>
+  <si>
+    <t>Elbise</t>
+  </si>
+  <si>
+    <t>Erkenden</t>
+  </si>
+  <si>
+    <t>Geç</t>
+  </si>
+  <si>
+    <t>Televizyon seyretmek</t>
+  </si>
+  <si>
+    <t>Gazete</t>
+  </si>
+  <si>
+    <t>Dergi</t>
+  </si>
+  <si>
+    <t>Büyük</t>
+  </si>
+  <si>
+    <t>Küçük</t>
+  </si>
+  <si>
+    <t>Saat</t>
+  </si>
+  <si>
+    <t>Sıra sayıları</t>
+  </si>
+  <si>
+    <t>Birinci</t>
+  </si>
+  <si>
+    <t>İkinci</t>
+  </si>
+  <si>
+    <t>Üçüncü</t>
+  </si>
+  <si>
+    <t>اَلرَّابِعُ</t>
+  </si>
+  <si>
+    <t>اَلْخَامِسُ</t>
+  </si>
+  <si>
+    <t>اَلسَّادِسُ</t>
+  </si>
+  <si>
+    <t>اَلسَّابِعُ</t>
+  </si>
+  <si>
+    <t>اَلثَّامِنُ</t>
+  </si>
+  <si>
+    <t>اَلتَّاسِعُ</t>
+  </si>
+  <si>
+    <t>اَلْعَاشِرُ</t>
+  </si>
+  <si>
+    <t>اَلْفَجْرُ</t>
+  </si>
+  <si>
+    <t>اَلظُّهْرُ</t>
+  </si>
+  <si>
+    <t>اَلْعَصْرُ</t>
+  </si>
+  <si>
+    <t>اَلْمَغْرِبُ</t>
+  </si>
+  <si>
+    <t>العِشَاءُ</t>
+  </si>
+  <si>
+    <t>فِعْلٌ</t>
+  </si>
+  <si>
+    <t>مَكَانٌ</t>
+  </si>
+  <si>
+    <t>فِقْرَةٌ</t>
+  </si>
+  <si>
+    <t>Dördüncü</t>
+  </si>
+  <si>
+    <t>Beşinci</t>
+  </si>
+  <si>
+    <t>Altıncı</t>
+  </si>
+  <si>
+    <t>Yedinci</t>
+  </si>
+  <si>
+    <t>Sekizinci</t>
+  </si>
+  <si>
+    <t>Dokuzuncu</t>
+  </si>
+  <si>
+    <t>Onuncu</t>
+  </si>
+  <si>
+    <t>Sabah(Sabah namazı)</t>
+  </si>
+  <si>
+    <t>Öğle</t>
+  </si>
+  <si>
+    <t>İkindi</t>
+  </si>
+  <si>
+    <t>Akşam</t>
+  </si>
+  <si>
+    <t>Yatsı</t>
+  </si>
+  <si>
+    <t>Fiil,Eylem</t>
+  </si>
+  <si>
+    <t>Yer,Mekan</t>
+  </si>
+  <si>
+    <t>Okuma parçası,Paragraf</t>
+  </si>
+  <si>
+    <t>Metin</t>
+  </si>
+  <si>
+    <t>Yiyecek</t>
+  </si>
+  <si>
+    <t>İçecek</t>
+  </si>
+  <si>
+    <t>Öğün</t>
+  </si>
+  <si>
+    <t>Yemek</t>
+  </si>
+  <si>
+    <t>İçmek</t>
+  </si>
+  <si>
+    <t>Kahvaltı</t>
+  </si>
+  <si>
+    <t>Öğle yemeği</t>
+  </si>
+  <si>
+    <t>Akşam yemeği</t>
+  </si>
+  <si>
+    <t>Et</t>
+  </si>
+  <si>
+    <t>Tavuk</t>
+  </si>
+  <si>
+    <t>Pirinç,pilav</t>
+  </si>
+  <si>
+    <t>Bulgur</t>
+  </si>
+  <si>
+    <t>Ekmek</t>
+  </si>
+  <si>
+    <t>نَصٌّ</t>
+  </si>
+  <si>
+    <t>طَعَامٌ</t>
+  </si>
+  <si>
+    <t>شَرَابٌ</t>
+  </si>
+  <si>
+    <t>وَجْبَةٌ</t>
+  </si>
+  <si>
+    <t>أَكَلَ</t>
+  </si>
+  <si>
+    <t>شَرِبَ</t>
+  </si>
+  <si>
+    <t>فَطُورٌ</t>
+  </si>
+  <si>
+    <t>غَدَاءٌ</t>
+  </si>
+  <si>
+    <t>عَشَاءٌ</t>
+  </si>
+  <si>
+    <t>لَحْمٌ</t>
+  </si>
+  <si>
+    <t>دَجَاجَةٌ</t>
+  </si>
+  <si>
+    <t>أَرُزُّ</t>
+  </si>
+  <si>
+    <t>بُرْغُلٌ</t>
+  </si>
+  <si>
+    <t>خُبْزٌ</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
   </si>
 </sst>
 </file>
@@ -1331,15 +1637,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="9" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="11" customWidth="1"/>
@@ -1354,6 +1660,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
     </row>
@@ -2494,8 +2803,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="5" customFormat="1">
-      <c r="A133" s="7"/>
+    <row r="133" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A133" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="B133" s="3" t="s">
         <v>264</v>
       </c>
@@ -2503,8 +2814,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="5" customFormat="1">
-      <c r="A134" s="7"/>
+    <row r="134" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A134" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="B134" s="3" t="s">
         <v>265</v>
       </c>
@@ -2512,8 +2825,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="5" customFormat="1">
-      <c r="A135" s="7"/>
+    <row r="135" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A135" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="B135" s="3" t="s">
         <v>266</v>
       </c>
@@ -2521,8 +2836,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="5" customFormat="1">
-      <c r="A136" s="7"/>
+    <row r="136" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A136" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="B136" s="3" t="s">
         <v>267</v>
       </c>
@@ -2530,8 +2847,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="5" customFormat="1">
-      <c r="A137" s="7"/>
+    <row r="137" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A137" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="B137" s="3" t="s">
         <v>268</v>
       </c>
@@ -2539,8 +2858,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="5" customFormat="1">
-      <c r="A138" s="7"/>
+    <row r="138" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A138" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="B138" s="3" t="s">
         <v>269</v>
       </c>
@@ -2548,8 +2869,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="5" customFormat="1">
-      <c r="A139" s="7"/>
+    <row r="139" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A139" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="B139" s="3" t="s">
         <v>270</v>
       </c>
@@ -2557,8 +2880,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="5" customFormat="1">
-      <c r="A140" s="7"/>
+    <row r="140" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A140" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="B140" s="3" t="s">
         <v>271</v>
       </c>
@@ -2566,8 +2891,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="5" customFormat="1">
-      <c r="A141" s="7"/>
+    <row r="141" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A141" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="B141" s="3" t="s">
         <v>272</v>
       </c>
@@ -2575,8 +2902,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="5" customFormat="1">
-      <c r="A142" s="7"/>
+    <row r="142" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A142" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="B142" s="3" t="s">
         <v>273</v>
       </c>
@@ -2584,8 +2913,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="5" customFormat="1">
-      <c r="A143" s="7"/>
+    <row r="143" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A143" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="B143" s="3" t="s">
         <v>274</v>
       </c>
@@ -2593,8 +2924,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="5" customFormat="1">
-      <c r="A144" s="7"/>
+    <row r="144" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A144" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="B144" s="3" t="s">
         <v>275</v>
       </c>
@@ -2602,8 +2935,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="5" customFormat="1">
-      <c r="A145" s="7"/>
+    <row r="145" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A145" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="B145" s="3" t="s">
         <v>276</v>
       </c>
@@ -2611,8 +2946,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="5" customFormat="1">
-      <c r="A146" s="7"/>
+    <row r="146" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A146" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="B146" s="3" t="s">
         <v>277</v>
       </c>
@@ -2620,8 +2957,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="5" customFormat="1">
-      <c r="A147" s="7"/>
+    <row r="147" spans="1:3" s="5" customFormat="1" ht="51.75">
+      <c r="A147" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="B147" s="3" t="s">
         <v>278</v>
       </c>
@@ -2629,7 +2968,497 @@
         <v>150</v>
       </c>
     </row>
+    <row r="148" spans="1:3" ht="51.75">
+      <c r="A148" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="51.75">
+      <c r="A149" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="51.75">
+      <c r="A150" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C150" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="51.75">
+      <c r="A151" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="51.75">
+      <c r="A152" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="51.75">
+      <c r="A153" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="51.75">
+      <c r="A154" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="51.75">
+      <c r="A155" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C155" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="51.75">
+      <c r="A156" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="51.75">
+      <c r="A157" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="51.75">
+      <c r="A158" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C158" s="11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="51.75">
+      <c r="A159" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="51.75">
+      <c r="A160" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="51.75">
+      <c r="A161" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" s="11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="51.75">
+      <c r="A162" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="51.75">
+      <c r="A163" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="51.75">
+      <c r="A164" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C164" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="51.75">
+      <c r="A165" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C165" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="51.75">
+      <c r="A166" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C166" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="51.75">
+      <c r="A167" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C167" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="51.75">
+      <c r="A168" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="51.75">
+      <c r="A169" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C169" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="51.75">
+      <c r="A170" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="51.75">
+      <c r="A171" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C171" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="51.75">
+      <c r="A172" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="51.75">
+      <c r="A173" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C173" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="51.75">
+      <c r="A174" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="51.75">
+      <c r="A175" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="51.75">
+      <c r="A176" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="51.75">
+      <c r="A177" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="51.75">
+      <c r="A178" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="51.75">
+      <c r="A179" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C179" s="11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="51.75">
+      <c r="A180" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="51.75">
+      <c r="A181" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C181" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="51.75">
+      <c r="A182" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="51.75">
+      <c r="A183" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C183" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="51.75">
+      <c r="A184" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="51.75">
+      <c r="A185" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C185" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="51.75">
+      <c r="A186" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C186" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="51.75">
+      <c r="A187" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C187" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="51.75">
+      <c r="A188" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C188" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="51.75">
+      <c r="A189" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C189" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="51.75">
+      <c r="A190" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C190" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="51.75">
+      <c r="A191" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="C192" s="11">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D2">
     <sortCondition descending="1" ref="D1:D2"/>
   </sortState>

--- a/public/gunluk.xlsx
+++ b/public/gunluk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B5D3D-35F0-4FC0-A076-2CFE42528661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2DE2B-6032-445B-BF75-0A4B88BE820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="411">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1180,6 +1180,96 @@
   </si>
   <si>
     <t>kelime_cinsi</t>
+  </si>
+  <si>
+    <t>Balık</t>
+  </si>
+  <si>
+    <t>Balıkçı</t>
+  </si>
+  <si>
+    <t>Meyve</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Portakal</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Muz</t>
+  </si>
+  <si>
+    <t>Dut</t>
+  </si>
+  <si>
+    <t>Şeftali</t>
+  </si>
+  <si>
+    <t>Üzüm</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Mandalina</t>
+  </si>
+  <si>
+    <t>İncir</t>
+  </si>
+  <si>
+    <t>Zerdali</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>سَمَكٌ</t>
+  </si>
+  <si>
+    <t>سَمَّكٌ</t>
+  </si>
+  <si>
+    <t>فَاكِهَةٌ</t>
+  </si>
+  <si>
+    <t>تُفَّاحَةٌ</t>
+  </si>
+  <si>
+    <t>بُرْتَقَالَةٌ</t>
+  </si>
+  <si>
+    <t>لَيْمُونَةٌ</t>
+  </si>
+  <si>
+    <t>مَوْزَةٌ</t>
+  </si>
+  <si>
+    <t>تُوْتَةٌ</t>
+  </si>
+  <si>
+    <t>خَوْخَةٌ</t>
+  </si>
+  <si>
+    <t>عِنَبٌ</t>
+  </si>
+  <si>
+    <t>مَانْجُو</t>
+  </si>
+  <si>
+    <t>يُوسُفِيَّةٌ</t>
+  </si>
+  <si>
+    <t>تِينٌ</t>
+  </si>
+  <si>
+    <t>مِشْمِشٌ</t>
+  </si>
+  <si>
+    <t>رُمَّانٌ</t>
   </si>
 </sst>
 </file>
@@ -1637,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -1673,6 +1763,9 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
@@ -1683,6 +1776,9 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -1691,6 +1787,9 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1">
       <c r="A5" s="7" t="s">
@@ -1699,6 +1798,9 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1">
       <c r="A6" s="7" t="s">
@@ -1707,6 +1809,9 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1">
       <c r="A7" s="7" t="s">
@@ -1715,6 +1820,9 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1">
       <c r="A8" s="7" t="s">
@@ -1723,6 +1831,9 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1">
       <c r="A9" s="7" t="s">
@@ -1731,6 +1842,9 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C9" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1">
       <c r="A10" s="7" t="s">
@@ -1739,6 +1853,9 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1">
       <c r="A11" s="7" t="s">
@@ -1747,6 +1864,9 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -1755,6 +1875,9 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1">
       <c r="A13" s="7" t="s">
@@ -1763,6 +1886,9 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C13" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1">
       <c r="A14" s="7" t="s">
@@ -1771,6 +1897,9 @@
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1">
       <c r="A15" s="7" t="s">
@@ -1779,6 +1908,9 @@
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1">
       <c r="A16" s="7" t="s">
@@ -1787,645 +1919,888 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="5" customFormat="1">
+      <c r="C16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="5" customFormat="1">
+      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1">
+      <c r="C18" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="5" customFormat="1">
+      <c r="C19" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1">
+      <c r="C20" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="5" customFormat="1">
+      <c r="C21" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="5" customFormat="1">
+      <c r="C22" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="5" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="5" customFormat="1">
+      <c r="C23" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="5" customFormat="1">
+      <c r="C24" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="5" customFormat="1">
+      <c r="C25" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="5" customFormat="1">
+      <c r="C26" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1">
       <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="5" customFormat="1">
+      <c r="C27" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="5" customFormat="1">
+      <c r="C28" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="5" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="5" customFormat="1">
+      <c r="C29" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="5" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="5" customFormat="1">
+      <c r="C30" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="5" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="5" customFormat="1">
+      <c r="C31" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1">
       <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="5" customFormat="1">
+      <c r="C32" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="5" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="5" customFormat="1">
+      <c r="C33" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="5" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="5" customFormat="1">
+      <c r="C34" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="5" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="5" customFormat="1">
+      <c r="C35" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="5" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" s="5" customFormat="1">
+      <c r="C36" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" s="5" customFormat="1">
+      <c r="C37" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1">
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" s="5" customFormat="1">
+      <c r="C38" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" s="5" customFormat="1">
+      <c r="C39" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" s="5" customFormat="1">
+      <c r="C40" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" s="5" customFormat="1">
+      <c r="C41" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" s="5" customFormat="1">
+      <c r="C42" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" s="5" customFormat="1">
+      <c r="C43" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="5" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" s="5" customFormat="1">
+      <c r="C44" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="5" customFormat="1">
       <c r="A45" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" s="5" customFormat="1">
+      <c r="C45" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="5" customFormat="1">
       <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" s="5" customFormat="1">
+      <c r="C46" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="5" customFormat="1">
       <c r="A47" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" s="5" customFormat="1">
+      <c r="C47" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="5" customFormat="1">
       <c r="A48" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" s="5" customFormat="1">
+      <c r="C48" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="5" customFormat="1">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="5" customFormat="1">
+      <c r="C49" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1">
       <c r="A50" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" s="5" customFormat="1">
+      <c r="C50" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="5" customFormat="1">
       <c r="A51" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="5" customFormat="1">
+      <c r="C51" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="5" customFormat="1">
       <c r="A52" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" s="5" customFormat="1">
+      <c r="C52" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="5" customFormat="1">
       <c r="A53" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="5" customFormat="1">
+      <c r="C53" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1">
       <c r="A54" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" s="5" customFormat="1">
+      <c r="C54" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="5" customFormat="1">
       <c r="A55" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" s="5" customFormat="1">
+      <c r="C55" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1">
       <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" s="5" customFormat="1">
+      <c r="C56" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="5" customFormat="1">
       <c r="A57" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" s="5" customFormat="1">
+      <c r="C57" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="5" customFormat="1">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" s="5" customFormat="1">
+      <c r="C58" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="5" customFormat="1">
       <c r="A59" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="5" customFormat="1">
+      <c r="C59" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1">
       <c r="A60" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" s="5" customFormat="1">
+      <c r="C60" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="5" customFormat="1">
       <c r="A61" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" s="5" customFormat="1">
+      <c r="C61" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1">
       <c r="A62" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" s="5" customFormat="1">
+      <c r="C62" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="5" customFormat="1">
       <c r="A63" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" s="5" customFormat="1">
+      <c r="C63" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="5" customFormat="1">
       <c r="A64" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" s="5" customFormat="1">
+      <c r="C64" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1">
       <c r="A65" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" s="5" customFormat="1">
+      <c r="C65" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1">
       <c r="A66" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" s="5" customFormat="1">
+      <c r="C66" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1">
       <c r="A67" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" s="5" customFormat="1">
+      <c r="C67" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="A68" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" s="5" customFormat="1">
+      <c r="C68" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" s="5" customFormat="1">
+      <c r="C69" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1">
       <c r="A70" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" s="5" customFormat="1">
+      <c r="C70" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1">
       <c r="A71" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" s="5" customFormat="1">
+      <c r="C71" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="5" customFormat="1">
       <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" s="5" customFormat="1">
+      <c r="C72" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="5" customFormat="1">
       <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" s="5" customFormat="1">
+      <c r="C73" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="5" customFormat="1">
       <c r="A74" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" s="5" customFormat="1">
+      <c r="C74" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="5" customFormat="1">
       <c r="A75" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" s="5" customFormat="1">
+      <c r="C75" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="5" customFormat="1">
       <c r="A76" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" s="5" customFormat="1">
+      <c r="C76" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="5" customFormat="1">
       <c r="A77" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" s="5" customFormat="1">
+      <c r="C77" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="5" customFormat="1">
       <c r="A78" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" s="5" customFormat="1">
+      <c r="C78" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="5" customFormat="1">
       <c r="A79" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" s="5" customFormat="1">
+      <c r="C79" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="5" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" s="5" customFormat="1">
+      <c r="C80" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="5" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" s="5" customFormat="1">
+      <c r="C81" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="5" customFormat="1">
       <c r="A82" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" s="5" customFormat="1">
+      <c r="C82" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="5" customFormat="1">
       <c r="A83" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" s="5" customFormat="1">
+      <c r="C83" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="5" customFormat="1">
       <c r="A84" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" s="5" customFormat="1">
+      <c r="C84" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="5" customFormat="1">
       <c r="A85" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" s="5" customFormat="1">
+      <c r="C85" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1">
       <c r="A86" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1">
+      <c r="C86" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="5" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" s="5" customFormat="1">
+      <c r="C87" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="5" customFormat="1">
       <c r="A88" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" s="5" customFormat="1">
+      <c r="C88" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="5" customFormat="1">
       <c r="A89" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" s="5" customFormat="1">
+      <c r="C89" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="5" customFormat="1">
       <c r="A90" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="5" customFormat="1">
+      <c r="C90" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="5" customFormat="1">
       <c r="A91" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1">
+      <c r="C91" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="5" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1">
+      <c r="C92" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="5" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" s="5" customFormat="1">
+      <c r="C93" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="5" customFormat="1">
       <c r="A94" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" s="5" customFormat="1">
+      <c r="C94" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="5" customFormat="1">
       <c r="A95" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" s="5" customFormat="1">
+      <c r="C95" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="5" customFormat="1">
       <c r="A96" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>183</v>
+      </c>
+      <c r="C96" s="5">
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="5" customFormat="1">
@@ -2435,6 +2810,9 @@
       <c r="B97" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="C97" s="5">
+        <v>99</v>
+      </c>
     </row>
     <row r="98" spans="1:3" s="5" customFormat="1">
       <c r="A98" s="7" t="s">
@@ -2443,6 +2821,9 @@
       <c r="B98" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="C98" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" spans="1:3" s="5" customFormat="1">
       <c r="A99" s="7" t="s">
@@ -2451,6 +2832,9 @@
       <c r="B99" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="C99" s="5">
+        <v>101</v>
+      </c>
     </row>
     <row r="100" spans="1:3" s="5" customFormat="1">
       <c r="A100" s="7" t="s">
@@ -2459,6 +2843,9 @@
       <c r="B100" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="C100" s="5">
+        <v>102</v>
+      </c>
     </row>
     <row r="101" spans="1:3" s="5" customFormat="1">
       <c r="A101" s="7" t="s">
@@ -2467,6 +2854,9 @@
       <c r="B101" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="C101" s="5">
+        <v>103</v>
+      </c>
     </row>
     <row r="102" spans="1:3" s="5" customFormat="1">
       <c r="A102" s="7" t="s">
@@ -2475,6 +2865,9 @@
       <c r="B102" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="C102" s="5">
+        <v>104</v>
+      </c>
     </row>
     <row r="103" spans="1:3" s="5" customFormat="1">
       <c r="A103" s="7" t="s">
@@ -2483,6 +2876,9 @@
       <c r="B103" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="C103" s="5">
+        <v>105</v>
+      </c>
     </row>
     <row r="104" spans="1:3" s="5" customFormat="1">
       <c r="A104" s="7" t="s">
@@ -3452,9 +3848,169 @@
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" ht="51.75">
+      <c r="A192" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>381</v>
+      </c>
       <c r="C192" s="11">
         <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="51.75">
+      <c r="A193" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C193" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="51.75">
+      <c r="A194" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="51.75">
+      <c r="A195" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="51.75">
+      <c r="A196" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C196" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="51.75">
+      <c r="A197" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C197" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="51.75">
+      <c r="A198" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C198" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="51.75">
+      <c r="A199" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C199" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="51.75">
+      <c r="A200" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C200" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="51.75">
+      <c r="A201" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C201" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="51.75">
+      <c r="A202" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C202" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="51.75">
+      <c r="A203" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C203" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="51.75">
+      <c r="A204" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C204" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="51.75">
+      <c r="A205" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="51.75">
+      <c r="A206" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" s="11">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/public/gunluk.xlsx
+++ b/public/gunluk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE2DE2B-6032-445B-BF75-0A4B88BE820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6907D8-F3D0-4ACB-A256-C87D98E4D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -1729,7 +1729,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
       <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
